--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\ejsExcel\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\github\deno_ejsexcel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40375219-DC96-4C29-8669-3CE2CD11BA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72610E3A-030D-4E84-8384-2519F042F6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申请单" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,17 @@
     <sheet name="被删除的工作表" sheetId="8" r:id="rId4"/>
     <sheet name="被显示的工作表" sheetId="9" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -603,10 +613,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%_img_({imgPh:"./1.png",cNvPrName:"图片名称(可不填)",cNvPrDescr:"图片描述(可不填)",cellNumAdd:2,rowNumAdd:2})%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;% if(true) { %&gt;&lt;%_hideSheet_()%&gt;&lt;% } %&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -639,6 +645,10 @@
   </si>
   <si>
     <t>输出日期格式(设置单元格为日期格式):</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%_img_({imgPh:"./test/1.png",cNvPrName:"图片名称(可不填)",cNvPrDescr:"图片描述(可不填)",cellNumAdd:2,rowNumAdd:2})%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1261,27 +1271,27 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.6875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.1875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.58203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.08203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="5.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.1875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -1302,7 +1312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -1333,7 +1343,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <f>SUM(A1,A2)</f>
         <v>3</v>
@@ -1360,8 +1370,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
@@ -1422,7 +1432,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
@@ -1440,11 +1450,11 @@
       <c r="K7" s="9"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -1458,7 +1468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1474,7 +1484,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>39</v>
       </c>
@@ -1492,7 +1502,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1505,7 +1515,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>31</v>
       </c>
@@ -1523,7 +1533,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1536,7 +1546,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1549,7 +1559,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1562,7 +1572,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1575,7 +1585,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1588,7 +1598,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="12"/>
     </row>
-    <row r="18" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
         <v>4</v>
@@ -1601,10 +1611,10 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1613,7 +1623,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C20" s="14" t="s">
         <v>45</v>
       </c>
@@ -1621,39 +1631,39 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L21" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M21" s="14"/>
       <c r="P21" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L22" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C24" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C25" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" s="14" t="s">
         <v>48</v>
       </c>
@@ -1661,43 +1671,43 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C33" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C34" s="14" t="str">
         <f>"&lt;%="&amp;C33&amp;"%&gt;"</f>
         <v>&lt;%=fld1%&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>55</v>
       </c>
@@ -1705,7 +1715,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>56</v>
       </c>
@@ -1731,7 +1741,7 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1746,16 +1756,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1770,14 +1780,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>60</v>
       </c>
@@ -1794,16 +1804,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\github\deno_ejsexcel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72610E3A-030D-4E84-8384-2519F042F6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E248F7BC-15FD-4045-89A1-C877F95A57C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,21 +20,11 @@
     <sheet name="被显示的工作表" sheetId="9" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>序号</t>
   </si>
@@ -650,6 +640,12 @@
   <si>
     <t>&lt;%_img_({imgPh:"./test/1.png",cNvPrName:"图片名称(可不填)",cNvPrDescr:"图片描述(可不填)",cellNumAdd:2,rowNumAdd:2})%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%_dataValidation_({sqref:`${ _rc }:${ _col }1048576`,formula1:'"测试3,测试4"'})%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%_dataValidation_({sqref:`H2`,formula1:'"测试3,测试4"'})%&gt;</t>
   </si>
 </sst>
 </file>
@@ -800,7 +796,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,14 +847,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -947,9 +940,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -987,9 +980,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1022,26 +1015,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1074,26 +1050,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1268,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50:K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="2"/>
@@ -1320,7 +1279,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="2"/>
@@ -1416,7 +1375,7 @@
       <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -1603,17 +1562,17 @@
       <c r="C18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="25" t="s">
         <v>69</v>
       </c>
       <c r="I18" s="7"/>
@@ -1654,12 +1613,12 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1718,6 +1677,16 @@
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
